--- a/gensamples/manualscore/scorecollectionplot.xlsx
+++ b/gensamples/manualscore/scorecollectionplot.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F84C2906-4117-445E-9379-6DD6B3C046A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE65668-7CB4-4B32-8C0B-C8AC66EA0F34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-120" windowWidth="15600" windowHeight="11760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19080" yWindow="-120" windowWidth="15600" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="raw" sheetId="1" r:id="rId1"/>
+    <sheet name="average" sheetId="2" r:id="rId2"/>
+    <sheet name="plot" sheetId="3" r:id="rId3"/>
+    <sheet name="pvalue" sheetId="5" r:id="rId4"/>
+    <sheet name="data" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="82">
   <si>
     <t>section</t>
   </si>
@@ -92,6 +102,180 @@
   </si>
   <si>
     <t>pof0.5</t>
+  </si>
+  <si>
+    <t>方差分析：无重复双因素分析</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>观测数</t>
+  </si>
+  <si>
+    <t>求和</t>
+  </si>
+  <si>
+    <t>平均</t>
+  </si>
+  <si>
+    <t>方差</t>
+  </si>
+  <si>
+    <t>行 1</t>
+  </si>
+  <si>
+    <t>行 2</t>
+  </si>
+  <si>
+    <t>行 3</t>
+  </si>
+  <si>
+    <t>行 4</t>
+  </si>
+  <si>
+    <t>行 5</t>
+  </si>
+  <si>
+    <t>行 6</t>
+  </si>
+  <si>
+    <t>行 7</t>
+  </si>
+  <si>
+    <t>行 8</t>
+  </si>
+  <si>
+    <t>行 9</t>
+  </si>
+  <si>
+    <t>行 10</t>
+  </si>
+  <si>
+    <t>行 11</t>
+  </si>
+  <si>
+    <t>行 12</t>
+  </si>
+  <si>
+    <t>行 13</t>
+  </si>
+  <si>
+    <t>行 14</t>
+  </si>
+  <si>
+    <t>行 15</t>
+  </si>
+  <si>
+    <t>行 16</t>
+  </si>
+  <si>
+    <t>行 17</t>
+  </si>
+  <si>
+    <t>行 18</t>
+  </si>
+  <si>
+    <t>行 19</t>
+  </si>
+  <si>
+    <t>行 20</t>
+  </si>
+  <si>
+    <t>行 21</t>
+  </si>
+  <si>
+    <t>行 22</t>
+  </si>
+  <si>
+    <t>行 23</t>
+  </si>
+  <si>
+    <t>行 24</t>
+  </si>
+  <si>
+    <t>行 25</t>
+  </si>
+  <si>
+    <t>行 26</t>
+  </si>
+  <si>
+    <t>行 27</t>
+  </si>
+  <si>
+    <t>行 28</t>
+  </si>
+  <si>
+    <t>行 29</t>
+  </si>
+  <si>
+    <t>行 30</t>
+  </si>
+  <si>
+    <t>行 31</t>
+  </si>
+  <si>
+    <t>行 32</t>
+  </si>
+  <si>
+    <t>行 33</t>
+  </si>
+  <si>
+    <t>行 34</t>
+  </si>
+  <si>
+    <t>行 35</t>
+  </si>
+  <si>
+    <t>行 36</t>
+  </si>
+  <si>
+    <t>行 37</t>
+  </si>
+  <si>
+    <t>列 1</t>
+  </si>
+  <si>
+    <t>列 2</t>
+  </si>
+  <si>
+    <t>列 3</t>
+  </si>
+  <si>
+    <t>方差分析</t>
+  </si>
+  <si>
+    <t>差异源</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>列</t>
+  </si>
+  <si>
+    <t>误差</t>
+  </si>
+  <si>
+    <t>总计</t>
   </si>
 </sst>
 </file>
@@ -122,7 +306,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -130,14 +314,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,7 +456,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>raw!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -284,7 +493,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$38</c:f>
+              <c:f>raw!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -414,7 +623,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>raw!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -450,7 +659,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>raw!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -580,7 +789,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>raw!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -617,7 +826,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$38</c:f>
+              <c:f>raw!$D$2:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1184,7 +1393,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
+              <c:f>raw!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1221,7 +1430,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$38</c:f>
+              <c:f>raw!$C$2:$C$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1351,7 +1560,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
+              <c:f>raw!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1387,7 +1596,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$38</c:f>
+              <c:f>raw!$B$2:$B$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -1517,7 +1726,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
+              <c:f>raw!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1554,7 +1763,7 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$38</c:f>
+              <c:f>raw!$D$2:$D$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="37"/>
@@ -4095,8 +4304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4802,8 +5011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4813,4 +5022,1393 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D0988C-212A-41A7-B9AB-AB6B6AE4ACB0}">
+  <dimension ref="A1:G53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.14166666666666661</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4.72222222222222E-2</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2.5231481481481489E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.36184523809523739</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.12061507936507913</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2.83050004724111E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.9107142857142857</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.30357142857142855</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.24521683673469391</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.63461538461538403</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.21153846153846134</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.809171597633125E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.91269841269841245</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.30423280423280413</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.23005374989501967</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1.4980574980574961</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.4993524993524987</v>
+      </c>
+      <c r="E9" s="2">
+        <v>8.9939097709105409E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2.3342245989304797</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.77807486631015987</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7.5559781520775804E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2.6515151515151509</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.88383838383838365</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1.0177532904805659E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2.305555555555554</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.76851851851851805</v>
+      </c>
+      <c r="E12" s="2">
+        <v>3.2664609053497884E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.95833333333333304</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.31944444444444436</v>
+      </c>
+      <c r="E13" s="2">
+        <v>9.780092592592593E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2.4714285714285711</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.82380952380952366</v>
+      </c>
+      <c r="E14" s="2">
+        <v>3.0629251700680094E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.33333333333333337</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1.4375</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.22005208333333331</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1.4555555555555548</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.48518518518518494</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.13213991769547351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.96428571428571297</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.32142857142857101</v>
+      </c>
+      <c r="E18" s="2">
+        <v>8.9285714285713969E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1.928685897435896</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.64289529914529864</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2.2745580963729806E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.78168345205927992</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.26056115068642666</v>
+      </c>
+      <c r="E20" s="2">
+        <v>8.6366915357251453E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="2">
+        <v>3</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2.0202429149797561</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.67341430499325206</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.12867910199041666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.94949494949494895</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.31649831649831633</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.13637213889739136</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.92843672456575643</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.30947890818858548</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.12030925133459344</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2">
+        <v>3</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.92844264142438426</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.30948088047479477</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.5054425764236739E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1.2261904761904749</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.40873015873015833</v>
+      </c>
+      <c r="E25" s="2">
+        <v>5.4752456538171068E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2.5404040404040389</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.84680134680134633</v>
+      </c>
+      <c r="E26" s="2">
+        <v>1.3859130020745878E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="C27" s="2">
+        <v>2.25</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+      <c r="C28" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2">
+        <v>3</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2.9285714285714279</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.97619047619047594</v>
+      </c>
+      <c r="E30" s="2">
+        <v>1.7006802721088684E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="2">
+        <v>3</v>
+      </c>
+      <c r="C31" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2.0833333333333259E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B32" s="2">
+        <v>3</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E32" s="2">
+        <v>9.3333333333333324E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="C33" s="2">
+        <v>1.964285714285714</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.65476190476190466</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.14328231292517002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" s="2">
+        <v>3</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="D34" s="2">
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2.0833333333333336E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B35" s="2">
+        <v>3</v>
+      </c>
+      <c r="C35" s="2">
+        <v>2.4285714285714279</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.80952380952380931</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.10884353741496633</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.56212412501232267</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.18737470833744088</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2.7148487344843521E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.44354838709677402</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.14784946236559135</v>
+      </c>
+      <c r="E37" s="2">
+        <v>1.7191293791189721E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" s="2">
+        <v>3</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.79076789616802556</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.26358929872267517</v>
+      </c>
+      <c r="E38" s="2">
+        <v>5.4762797136505142E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="2">
+        <v>3</v>
+      </c>
+      <c r="C39" s="2">
+        <v>1.666666666666665</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.55555555555555503</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.23456790123456744</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="2">
+        <v>3</v>
+      </c>
+      <c r="C40" s="2">
+        <v>1.0276292335115849</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.34254307783719495</v>
+      </c>
+      <c r="E40" s="2">
+        <v>3.0622476600968201E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="2">
+        <v>37</v>
+      </c>
+      <c r="C42" s="2">
+        <v>24.431628893340289</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0.66031429441460243</v>
+      </c>
+      <c r="E42" s="2">
+        <v>0.11892437743801526</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B43" s="2">
+        <v>37</v>
+      </c>
+      <c r="C43" s="2">
+        <v>14.242293186161248</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0.38492684286922291</v>
+      </c>
+      <c r="E43" s="2">
+        <v>0.10891367744870475</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="3">
+        <v>37</v>
+      </c>
+      <c r="C44" s="3">
+        <v>13.279819863388783</v>
+      </c>
+      <c r="D44" s="3">
+        <v>0.35891405036185897</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0.11785697133887926</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49" s="2">
+        <v>8.544971550650164</v>
+      </c>
+      <c r="C49" s="2">
+        <v>36</v>
+      </c>
+      <c r="D49" s="2">
+        <v>0.23736032085139344</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4.3819811948814005</v>
+      </c>
+      <c r="F49" s="2">
+        <v>4.9200987784553856E-8</v>
+      </c>
+      <c r="G49" s="2">
+        <v>1.5806321363280555</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="2">
+        <v>2.0640699251454979</v>
+      </c>
+      <c r="C50" s="2">
+        <v>2</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1.032034962572749</v>
+      </c>
+      <c r="E50" s="2">
+        <v>19.052711852733271</v>
+      </c>
+      <c r="F50" s="2">
+        <v>2.2848422535181243E-7</v>
+      </c>
+      <c r="G50" s="2">
+        <v>3.1239074485457761</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51" s="2">
+        <v>3.9000493934714093</v>
+      </c>
+      <c r="C51" s="2">
+        <v>72</v>
+      </c>
+      <c r="D51" s="2">
+        <v>5.4167352687102904E-2</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53" s="3">
+        <v>14.509090869267071</v>
+      </c>
+      <c r="C53" s="3">
+        <v>110</v>
+      </c>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8296B4C5-A572-4B3D-96DE-2886BB40E223}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>4.1666666666666602E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.17708333333333301</v>
+      </c>
+      <c r="C3" s="1">
+        <v>7.1428571428571397E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.11333333333333299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
+        <v>3.1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.5714285714285698E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.38461538461538403</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.85714285714285698</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.5555555555555497E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.53846153846153799</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.18181818181818099</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.86363636363636298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="1">
+        <v>4.2</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.94444444444444398</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.77777777777777701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="1">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.625</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.82142857142857095</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" s="1">
+        <v>4.7</v>
+      </c>
+      <c r="B14" s="1">
+        <v>0.9375</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.33333333333333298</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.22222222222222199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.28571428571428498</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.73076923076922995</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.72916666666666596</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>4.12</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.58695652173913004</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1.6949152542372801E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.17777777777777701</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>4.13</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.28947368421052599</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.73076923076922995</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.72222222222222199</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.22727272727272699</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>4.17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0.69230769230769196</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.22</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1.6129032258064498E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>4.18</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0.47058823529411697</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6.8965517241379296E-2</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.38888888888888801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>4.21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0.58333333333333304</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.14285714285714199</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>4.22</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0.83333333333333304</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.81818181818181801</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.92857142857142805</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0.71428571428571397</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0.42857142857142799</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1">
+        <v>0.32653061224489699</v>
+      </c>
+      <c r="C34" s="1">
+        <v>5.4347826086956503E-3</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0.23015873015873001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="1">
+        <v>7</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0.25</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0.19354838709677399</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0.18965517241379301</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0.52564102564102499</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7.5471698113207503E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A37" s="1">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0.88888888888888795</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0.77777777777777701</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="B38" s="1">
+        <v>0.54166666666666596</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0.213235294117647</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0.27272727272727199</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>